--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_de.xlsx
@@ -127,7 +127,7 @@
     <t>Anzufragender Betrieb:</t>
   </si>
   <si>
-    <t>Bei Rückfragen bitte einfach anrufen: Dr. Armin Weiser, +49 (30) 18412-2118, armin.weiser@bfr.bund.de</t>
+    <t>Bei Rückfragen bitte einfach Kontakt aufnehmen mit dem BfR FoodRiskLabs-Team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
   </si>
 </sst>
 </file>
@@ -1381,59 +1381,159 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1465,10 +1565,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="36" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1490,93 +1586,101 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1584,79 +1688,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1664,65 +1697,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2144,170 +2144,170 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A3" sqref="A3:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="66" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="12" style="66" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="96" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="96" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="96" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="66" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="66" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="66" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="66" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="66" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="66" customWidth="1"/>
-    <col min="15" max="15" width="27" style="64" customWidth="1"/>
-    <col min="16" max="19" width="11.42578125" style="64"/>
-    <col min="20" max="16384" width="11.42578125" style="66"/>
+    <col min="1" max="1" width="16.265625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="12.3984375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="12.1328125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="21.86328125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="32.73046875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.1328125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="11.86328125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="19.265625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="27" style="12" customWidth="1"/>
+    <col min="16" max="19" width="11.3984375" style="12"/>
+    <col min="20" max="16384" width="11.3984375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="60" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-    </row>
-    <row r="2" spans="1:19" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-    </row>
-    <row r="3" spans="1:19" s="65" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-    </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="39" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="49" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="63"/>
-    </row>
-    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="58"/>
+      <c r="B5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="14" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="63"/>
-    </row>
-    <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="93"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2317,262 +2317,262 @@
       <c r="H6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="63"/>
-    </row>
-    <row r="7" spans="1:19" s="65" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="I6" s="57"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="75"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="78"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="78"/>
-    </row>
-    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="78"/>
-    </row>
-    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="78"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="78"/>
-    </row>
-    <row r="14" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="81"/>
-    </row>
-    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="63"/>
-    </row>
-    <row r="16" spans="1:19" s="56" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45" t="s">
+      <c r="E16" s="91"/>
+      <c r="F16" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="4" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="53" t="s">
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-    </row>
-    <row r="17" spans="1:19" s="56" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="18" t="s">
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="59"/>
+      <c r="B17" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="18" t="s">
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="57"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-    </row>
-    <row r="18" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="60"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2582,400 +2582,408 @@
       <c r="H18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="63"/>
-    </row>
-    <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="63"/>
-    </row>
-    <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="63"/>
-    </row>
-    <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="63"/>
-    </row>
-    <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="63"/>
-    </row>
-    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="63"/>
-    </row>
-    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="63"/>
-    </row>
-    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="63"/>
-    </row>
-    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="63"/>
-    </row>
-    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="63"/>
-    </row>
-    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="63"/>
-    </row>
-    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="63"/>
-    </row>
-    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="63"/>
-    </row>
-    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="63"/>
-    </row>
-    <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="63"/>
-    </row>
-    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="63"/>
-    </row>
-    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="63"/>
-    </row>
-    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="63"/>
-    </row>
-    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="63"/>
-    </row>
-    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="63"/>
-    </row>
-    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="63"/>
-    </row>
-    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="63"/>
-    </row>
-    <row r="40" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="91"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="63"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="N16:N18"/>
@@ -2988,30 +2996,22 @@
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="A8:N8"/>
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F7 F15:F1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_de.xlsx
@@ -40,9 +40,6 @@
     <t>MHD oder Verbrauchsdatum</t>
   </si>
   <si>
-    <t>Digitale Auszüge (z.B. Excel oder xml-Dateien) vom befragten Betrieb könnten ebenso geeignet sein; das Ausfüllen dieser Vorlage wäre dann nicht notwendig - für diesen Fall bitte Rückruf (Dr. Armin Weiser: 030 - 18412-2118)</t>
-  </si>
-  <si>
     <t>Wareneingang</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Bei Rückfragen bitte einfach Kontakt aufnehmen mit dem BfR FoodRiskLabs-Team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
+  </si>
+  <si>
+    <t>Digitale Auszüge (z.B. Excel oder xml-Dateien) vom befragten Betrieb könnten ebenso geeignet sein; das Ausfüllen dieser Vorlage wäre dann nicht notwendig - für diesen Fall bitte Rückruf (BfR FoodRiskLabs-Team, +49 (30) 18412-4444)</t>
   </si>
 </sst>
 </file>
@@ -1511,6 +1511,126 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1592,48 +1712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1645,84 +1723,6 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2144,7 +2144,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2168,22 +2168,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
+      <c r="A1" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="52"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
@@ -2191,22 +2191,22 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
+      <c r="A2" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2214,22 +2214,22 @@
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="A3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="11"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -2237,77 +2237,77 @@
       <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="49"/>
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="C5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="58"/>
-      <c r="B5" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="76" t="s">
+      <c r="M5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="95"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="93"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2317,17 +2317,17 @@
       <c r="H6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="96"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:19" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2349,175 +2349,175 @@
       <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="98"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="76"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="76"/>
+    </row>
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="73"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="36" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="76"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-    </row>
-    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-    </row>
-    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="36" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="76"/>
+    </row>
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="76"/>
     </row>
     <row r="14" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41"/>
+      <c r="A14" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="79"/>
     </row>
     <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="90"/>
+      <c r="A15" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
       <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:19" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="64" t="s">
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="68" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="6"/>
@@ -2527,40 +2527,40 @@
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:19" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="59"/>
-      <c r="B17" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="67" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="65"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2568,11 +2568,11 @@
       <c r="S17" s="7"/>
     </row>
     <row r="18" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="60"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2582,12 +2582,12 @@
       <c r="H18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="66"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="70"/>
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
@@ -2966,6 +2966,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:N12"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A15:N15"/>
     <mergeCell ref="B4:C4"/>
@@ -2982,36 +3012,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J16:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F7 F15:F1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_de.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Prod_tob_de.xlsx
@@ -1373,7 +1373,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1393,10 +1393,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1413,10 +1409,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1511,6 +1503,153 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1541,18 +1680,9 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1574,12 +1704,6 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1591,138 +1715,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="30" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2141,7 +2133,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2149,165 +2141,159 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.265625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.86328125" style="14" customWidth="1"/>
-    <col min="3" max="4" width="12.3984375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.3984375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="21.86328125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="32.73046875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.1328125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="11.86328125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="19.265625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="27" style="12" customWidth="1"/>
-    <col min="16" max="19" width="11.3984375" style="12"/>
-    <col min="20" max="16384" width="11.3984375" style="14"/>
+    <col min="1" max="1" width="16.265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="12.3984375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="12.1328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="21.86328125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="32.73046875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="10.1328125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="11.86328125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="19.265625" style="12" customWidth="1"/>
+    <col min="15" max="18" width="11.3984375" style="10"/>
+    <col min="19" max="16384" width="11.3984375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="91" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    </row>
+    <row r="3" spans="1:18" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="48" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="54" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="42" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="51" t="s">
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="49"/>
-      <c r="B5" s="56" t="s">
+    </row>
+    <row r="5" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="64"/>
+      <c r="B5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="94" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="50"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="N5" s="89"/>
+    </row>
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="87"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2317,262 +2303,257 @@
       <c r="H6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:19" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="I6" s="55"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="90"/>
+    </row>
+    <row r="7" spans="1:18" s="11" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="96" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="98"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="74" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="58"/>
+    </row>
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="74" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="76"/>
-    </row>
-    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="74" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
+    </row>
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="76"/>
-    </row>
-    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="74" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="76"/>
-    </row>
-    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="74" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36"/>
+    </row>
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
-    </row>
-    <row r="14" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="77" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="79"/>
-    </row>
-    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="39" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="39"/>
+    </row>
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="49" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81"/>
+    </row>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="85"/>
+      <c r="D16" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="65" t="s">
+      <c r="E16" s="85"/>
+      <c r="F16" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="44" t="s">
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="68" t="s">
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="70" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:19" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="63"/>
-      <c r="B17" s="71" t="s">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="65"/>
+      <c r="B17" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="71" t="s">
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="62" t="s">
+      <c r="J17" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="69"/>
+      <c r="N17" s="71"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="64"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="66"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2582,404 +2563,382 @@
       <c r="H18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="11"/>
-    </row>
-    <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="11"/>
-    </row>
-    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="11"/>
-    </row>
-    <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="11"/>
-    </row>
-    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="11"/>
-    </row>
-    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.45">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="11"/>
-    </row>
-    <row r="40" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="11"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="72"/>
+    </row>
+    <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+    </row>
+    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
+    </row>
+    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+    </row>
+    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+    </row>
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
+    </row>
+    <row r="40" spans="1:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="A16:A18"/>
@@ -2996,22 +2955,21 @@
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J16:M16"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F7 F15:F1048576">
